--- a/PLANEJAMENTO_BACKLOG_SPRINT_DAILY.xlsx
+++ b/PLANEJAMENTO_BACKLOG_SPRINT_DAILY.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unip\PIM 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E842A2B-0960-46A8-A4A1-EF55F51C453D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706CDC1B-908B-4D3E-9B27-5041D8067211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{382B0824-085F-46F6-8F9B-52819645303C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="137">
   <si>
     <t>PLANEJAMENTO</t>
   </si>
@@ -45,9 +45,6 @@
     <t>BACKLOG</t>
   </si>
   <si>
-    <t xml:space="preserve">ATIVIDADE </t>
-  </si>
-  <si>
     <t>PRIORIDADE</t>
   </si>
   <si>
@@ -60,24 +57,6 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>BAIXA</t>
   </si>
   <si>
@@ -96,18 +75,9 @@
     <t>ESTIMATIVA (HORAS)</t>
   </si>
   <si>
-    <t>FULANO</t>
-  </si>
-  <si>
     <t>REALIZADO (HORAS)</t>
   </si>
   <si>
-    <t>EM ANDAMENTO</t>
-  </si>
-  <si>
-    <t>PENDENTE</t>
-  </si>
-  <si>
     <t>CONCLUIDO</t>
   </si>
   <si>
@@ -117,12 +87,6 @@
     <t>RESPONSAVEL</t>
   </si>
   <si>
-    <t xml:space="preserve"> SEM IMPEDIMENTO - TRABALHOU NA PESQUISA DA ATIVIDADE</t>
-  </si>
-  <si>
-    <t>BELTRANO</t>
-  </si>
-  <si>
     <t>HISTORIA</t>
   </si>
   <si>
@@ -171,9 +135,6 @@
     <t>ARIELI</t>
   </si>
   <si>
-    <t>SEM IMPEDIMENTO - TERMINAR GLOSSARIO</t>
-  </si>
-  <si>
     <t>ANA BEATRIZ</t>
   </si>
   <si>
@@ -187,6 +148,307 @@
   </si>
   <si>
     <t>ATESTADO</t>
+  </si>
+  <si>
+    <t>Definir e justificar o ciclo de desenvolvimento do Software</t>
+  </si>
+  <si>
+    <t>Descrever os requisitos dos usuários e os requisitos do sistema.</t>
+  </si>
+  <si>
+    <t>Elaborar os protótipos de tela.</t>
+  </si>
+  <si>
+    <t>Criar planilhas de testes do sistema e as querys do banco.</t>
+  </si>
+  <si>
+    <t>Elaborar manual de uso do sistema para treinamento (eletrônico)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestão estratégica de recursos humanos.  </t>
+  </si>
+  <si>
+    <t>DESENVOLVER INTRODUÇÃO</t>
+  </si>
+  <si>
+    <t>INICIAR PROTOTIPODE TELAS - CADASTRO DE USUARIO</t>
+  </si>
+  <si>
+    <t>FINALIZAR ORGANIZAÇÃO DO REPOSITORIO</t>
+  </si>
+  <si>
+    <t>FINALIZAR GLOSSARIO</t>
+  </si>
+  <si>
+    <t>CORRIGIR TELA DE LOGIN</t>
+  </si>
+  <si>
+    <t>FINALIZAR INTRUDUÇÃO</t>
+  </si>
+  <si>
+    <t>TRABALAHAR NA PoC - CRUD</t>
+  </si>
+  <si>
+    <t>Pesquisa do que são fazendas urbanas, seus tipos, e relatar um breve histórico no Brasil e no mundo</t>
+  </si>
+  <si>
+    <t>Descrever o que significa segurança alimentar e banco de alimentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pesquisa </t>
+  </si>
+  <si>
+    <t>Pesquisa</t>
+  </si>
+  <si>
+    <t>Regras de negócio</t>
+  </si>
+  <si>
+    <t>Criar um cenário detalhado, com: regras do negócio.</t>
+  </si>
+  <si>
+    <t>Glossário do sistema</t>
+  </si>
+  <si>
+    <t>Eescrever o glossário do sistema</t>
+  </si>
+  <si>
+    <t>Luana</t>
+  </si>
+  <si>
+    <t>NÃO CONCLUIDO</t>
+  </si>
+  <si>
+    <t>Requisitos</t>
+  </si>
+  <si>
+    <t>SPRINT 03</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>Classificar cada requisito (tanto os de usuários quanto os de sistema) como requisito funcional ou não funcional.</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>Arieli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definir e justificar o ciclo de vida de desenvolvimento de software
+ </t>
+  </si>
+  <si>
+    <t>Especificar o tipo de cada requisito não funcional levantado (usabilidade, desempenho, capacidade etc.)</t>
+  </si>
+  <si>
+    <t>Caso de uso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaborar os modelos de casos de uso para cada cenário e um geral resumido. Cada caso de uso deve ter uma descrição suscinta do seu comportamento, dos fluxos principais, alternativos e de exceção e pré e pós-condições. </t>
+  </si>
+  <si>
+    <t>Matheus/Gabriel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elaborar protótipos de telas para aprovação dos gestores do sistema.</t>
+  </si>
+  <si>
+    <t>Identificar relacionamentos de include, extend e generalização.</t>
+  </si>
+  <si>
+    <t>Diagrama de classe de Análise</t>
+  </si>
+  <si>
+    <t>Diagrama de sequência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagrama de implantação </t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explorar os princípios da ODS (Objetivos de Desenvolvimento Sustentável). Explicar o que é ESG (em português meio ambiente, social e governança corporativa) e seu relacionamento com os princípios da ODS. </t>
+  </si>
+  <si>
+    <t>Descrever os objetivos da COP30 (30ª Conferência da ONU sobre Mudanças Climáticas) e como o Brasil está envolvido nesse tema</t>
+  </si>
+  <si>
+    <t>SPRINT 04</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>Diagrama de ER</t>
+  </si>
+  <si>
+    <t>Dicionário de dados</t>
+  </si>
+  <si>
+    <t>Elaborar o Diagrama ER do banco de dados.</t>
+  </si>
+  <si>
+    <t>Elaborar o Dicionário de dados</t>
+  </si>
+  <si>
+    <t>Ana Beatriz/Arieli</t>
+  </si>
+  <si>
+    <t>Introdução</t>
+  </si>
+  <si>
+    <t>Elaborar a Introdução para o documento PIM</t>
+  </si>
+  <si>
+    <t>Fábio</t>
+  </si>
+  <si>
+    <t>NÂO CONCLUIDO</t>
+  </si>
+  <si>
+    <t>Script de criação de banco</t>
+  </si>
+  <si>
+    <t>Script de dados iniciais de teste</t>
+  </si>
+  <si>
+    <t>Gerar scripts de dados iniciais de testes (roteiros de teste) e homologação do sistema (testes de unidade, integração, performance, usabilidade etc).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gerar o script de criação do banco (use uma ferramenta)</t>
+  </si>
+  <si>
+    <t>Regra de negócio</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>Corrigir as Regras de negócio</t>
+  </si>
+  <si>
+    <t>Elaborar telas de longin e tela de menu do sistema</t>
+  </si>
+  <si>
+    <t>Ana Beatriz</t>
+  </si>
+  <si>
+    <t>SPRINT 05</t>
+  </si>
+  <si>
+    <t>Gabriel/Luana</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>Corrigir as telas de login e menu. Elaborar telas de cadastro de fazendas urbanas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaboarar telas de cadastro de usuario </t>
+  </si>
+  <si>
+    <t>Concluir o Glossário do sistema</t>
+  </si>
+  <si>
+    <t>Glossário do Sistema</t>
+  </si>
+  <si>
+    <t>Inrodução</t>
+  </si>
+  <si>
+    <t>Concluir a Introdução do documento PIM</t>
+  </si>
+  <si>
+    <t>Organização do repositório</t>
+  </si>
+  <si>
+    <t>Fabio</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Poc - CRUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoC (Proof of Concept – prova de conceito) em modo console que faça o CRUD (Creat – Criar - , Read – Ler, Update – Atualizar e Delete – Apagar). * *Chamar classes em uma dll para o cadastro dos itens no banco. No segundo semestre, o sistema deverá ser implementado. </t>
+  </si>
+  <si>
+    <t>Matheus</t>
+  </si>
+  <si>
+    <t>Organização  do repositorio (Git Hub)</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>Economia e Mercado</t>
+  </si>
+  <si>
+    <t>Estimativa e viabilidade</t>
+  </si>
+  <si>
+    <t>Criar planilhas de testes para homologação do sistema identificando como produzir as evidências do teste e as querys no banco, para certificar que os dados estão corretos (um mínimo de testes que assegurem a funcionalidade básica do sistema);</t>
+  </si>
+  <si>
+    <t>Descrever quais recursos humanos serão utilizados.</t>
+  </si>
+  <si>
+    <t>Elaborar os diagramas de classes de análise (Boundary, Control, Entity). UML</t>
+  </si>
+  <si>
+    <t>Demonstrar o comportamento dos casos de uso por meio do diagrama de sequência. UML</t>
+  </si>
+  <si>
+    <t>Elaborar o diagrama de implantação (definir quantos servidores, banco de dados, estrutura utilizada para o sistema e como instalar o sistema). UML</t>
+  </si>
+  <si>
+    <t>Explicar como o sistema será usado com base no protótipo de telas</t>
+  </si>
+  <si>
+    <t>DEPENDE DA CORREÇÂO DAS REGRAS DE NEGÓCIO - TERMINAR GLOSSARIO</t>
+  </si>
+  <si>
+    <t>ATIVIDADE  (tarefas)</t>
+  </si>
+  <si>
+    <t>SPRINT 06</t>
+  </si>
+  <si>
+    <t>ALTA</t>
   </si>
 </sst>
 </file>
@@ -226,12 +488,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -311,9 +585,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -332,11 +631,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,395 +972,1109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21C7278-4439-4CF1-82AD-0D14D81CCEDD}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="43.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" customWidth="1"/>
-    <col min="7" max="7" width="26.44140625" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="69.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" customWidth="1"/>
     <col min="9" max="9" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="8">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="8">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="8">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="8">
+        <v>11</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="8">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="8">
         <v>3</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="G22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3">
+        <v>3</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3">
+        <v>2</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3">
+        <v>2</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3">
+        <v>2</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="3">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="3">
+        <v>3</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="F34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="18"/>
+    </row>
+    <row r="47" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="F47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="9">
-        <v>8</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
+      <c r="E50" s="3"/>
+      <c r="F50" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="18"/>
+    </row>
+    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="H56" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G59" s="3">
+        <v>2</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G61" s="3"/>
+      <c r="H61" s="19"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="18"/>
+    </row>
+    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="G68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>1</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9">
-        <v>2</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
-        <v>1</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9">
-        <v>4</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
-        <v>1</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9">
-        <v>3</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>1</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9">
-        <v>5</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
-        <v>2</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9">
-        <v>2</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
-        <v>2</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9">
-        <v>4</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
-        <v>3</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9">
-        <v>3</v>
-      </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
-        <v>3</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9">
-        <v>5</v>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9" t="s">
-        <v>23</v>
-      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="19"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="19"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="19"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="19"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A66:H66"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A37:H37"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1067,10 +2082,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53D959B-E411-475F-8D2F-46A6BAEF8854}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1081,104 +2096,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
+      <c r="A1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>6</v>
+      <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
-        <v>45404</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>26</v>
+      <c r="A3" s="4">
+        <v>45405</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>45404</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="4">
+        <v>45405</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>45405</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>45405</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>45405</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>45405</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>45406</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="9"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
-        <v>45405</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>45405</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
-        <v>45405</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="C9" s="19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
-        <v>45405</v>
-      </c>
-      <c r="B8" s="9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>45406</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="12" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>45406</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>45405</v>
-      </c>
-      <c r="B9" s="9" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>45406</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>45405</v>
-      </c>
-      <c r="B10" s="9" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>45406</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="9" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>45406</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>49</v>
       </c>
     </row>
